--- a/Output/PBL/Platform/Other_Services/DoD_Other_Services_Contracts.xlsx
+++ b/Output/PBL/Platform/Other_Services/DoD_Other_Services_Contracts.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="Veh" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PSR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Cust" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -136,15 +138,44 @@
   </si>
   <si>
     <t xml:space="preserve">CB-Incentive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.JPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Army</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other DoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -180,10 +211,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2089,4 +2122,1187 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>5737</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>72189774</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>108157463.82</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>265539501.5196</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>170074743.2442</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>128422628.75</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>309571577.5</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>212896456.86</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>101273628.1</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>305110025.454</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>84820075.0156</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>97408459.9369</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>-284267.6726</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>-5376173.781</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>2148553.7521</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>-4344765.9707</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>-1128901.8594</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="3" t="str">
+        <f>Sum(N2:N2)</f>
+      </c>
+      <c r="O3" s="3" t="str">
+        <f>Sum(O2:O2)</f>
+      </c>
+      <c r="P3" s="3" t="str">
+        <f>Sum(P2:P2)</f>
+      </c>
+      <c r="Q3" s="3" t="str">
+        <f>Sum(Q2:Q2)</f>
+      </c>
+      <c r="R3" s="3" t="str">
+        <f>Sum(R2:R2)</f>
+      </c>
+      <c r="S3" s="3" t="str">
+        <f>Sum(S2:S2)</f>
+      </c>
+      <c r="T3" s="3" t="str">
+        <f>Sum(T2:T2)</f>
+      </c>
+      <c r="U3" s="3" t="str">
+        <f>Sum(U2:U2)</f>
+      </c>
+      <c r="V3" s="3" t="str">
+        <f>Sum(V2:V2)</f>
+      </c>
+      <c r="W3" s="3" t="str">
+        <f>Sum(W2:W2)</f>
+      </c>
+      <c r="X3" s="3" t="str">
+        <f>Sum(X2:X2)</f>
+      </c>
+      <c r="Y3" s="3" t="str">
+        <f>Sum(Y2:Y2)</f>
+      </c>
+      <c r="Z3" s="3" t="str">
+        <f>Sum(Z2:Z2)</f>
+      </c>
+      <c r="AA3" s="3" t="str">
+        <f>Sum(AA2:AA2)</f>
+      </c>
+      <c r="AB3" s="3" t="str">
+        <f>Sum(AB2:AB2)</f>
+      </c>
+      <c r="AC3" s="3" t="str">
+        <f>Sum(AC2:AC2)</f>
+      </c>
+      <c r="AD3" s="3" t="str">
+        <f>Sum(AD2:AD2)</f>
+      </c>
+      <c r="AE3" s="3" t="str">
+        <f>Sum(AE2:AE2)</f>
+      </c>
+      <c r="AF3" s="3" t="str">
+        <f>Sum(AF2:AF2)</f>
+      </c>
+      <c r="AG3" s="3" t="str">
+        <f>Sum(AG2:AG2)</f>
+      </c>
+      <c r="AH3" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U6" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>8122.42623715666</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>100127323.129343</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>148496025.204606</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>361445215.640242</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>226946041.988467</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>168311684.534245</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>398496282.321014</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>269141160.82641</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>126716602.931137</v>
+      </c>
+      <c r="X7" s="3" t="n">
+        <v>378734806.010773</v>
+      </c>
+      <c r="Y7" s="3" t="n">
+        <v>103539865.591433</v>
+      </c>
+      <c r="Z7" s="3" t="n">
+        <v>116324111.724124</v>
+      </c>
+      <c r="AA7" s="3" t="n">
+        <v>-333306.644976891</v>
+      </c>
+      <c r="AB7" s="3" t="n">
+        <v>-6222333.68113542</v>
+      </c>
+      <c r="AC7" s="3" t="n">
+        <v>2403977.60328563</v>
+      </c>
+      <c r="AD7" s="3" t="n">
+        <v>-4543524.21870892</v>
+      </c>
+      <c r="AE7" s="3" t="n">
+        <v>-1128901.8594</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4" t="n">
+        <v>1695026.7852</v>
+      </c>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="n">
+        <v>999826</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>173867883</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>202518682.35</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>200152656</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>235928772</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>350000</v>
+      </c>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4" t="n">
+        <v>-617517.1226</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>-10998831.1279</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>-667140.5468</v>
+      </c>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4" t="n">
+        <v>70656554</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>86918750</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>142958821.5469</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>70087891.3906</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>40970078.3125</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>44776594.27</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>27579390.04</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>-68229372.87</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>71263999.0478</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>84571146.875</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>96981758.0157</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>13430059.22</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>4793541.4269</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>3238071.8789</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>-4344765.9707</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>-1128901.8594</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="n">
+        <v>5737</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1533220</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>-4365</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4" t="n">
+        <v>2500</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="n">
+        <v>875873</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>2198828.36</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>-894434.7188</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>-101071.8594</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>467905.14</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>3643849.77</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>829115.92</v>
+      </c>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4" t="n">
+        <v>-1616440.53</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>-1188310.875</v>
+      </c>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4" t="n">
+        <v>-41203.2188</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>-16740659.54</v>
+      </c>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4" t="n">
+        <v>-422377.58</v>
+      </c>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="n">
+        <v>21243078.82</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>120885653.1875</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>99984351.8536</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>86452724.4375</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>90927100.23</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>-16461048</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>-32848483.39</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="4" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="4" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="4" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="4" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="4" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="4" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="4" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="4" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="4" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="4" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="4" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="4" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="4" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="4" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="4" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="4" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" t="s">
+        <v>10</v>
+      </c>
+      <c r="X10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4" t="n">
+        <v>2307224.79475385</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4" t="n">
+        <v>1310379.64211689</v>
+      </c>
+      <c r="V11" s="4" t="n">
+        <v>223811583.576419</v>
+      </c>
+      <c r="W11" s="4" t="n">
+        <v>256021702.101679</v>
+      </c>
+      <c r="X11" s="4" t="n">
+        <v>250437010.224624</v>
+      </c>
+      <c r="Y11" s="4" t="n">
+        <v>292859723.513908</v>
+      </c>
+      <c r="Z11" s="4" t="n">
+        <v>427245.000082074</v>
+      </c>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4" t="n">
+        <v>-724044.906221918</v>
+      </c>
+      <c r="AC11" s="4" t="n">
+        <v>-12729945.1558136</v>
+      </c>
+      <c r="AD11" s="4" t="n">
+        <v>-746451.389072013</v>
+      </c>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4" t="n">
+        <v>98000744.7254768</v>
+      </c>
+      <c r="R12" s="4" t="n">
+        <v>119336090.500729</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <v>194591696.474508</v>
+      </c>
+      <c r="T12" s="4" t="n">
+        <v>93524583.5977861</v>
+      </c>
+      <c r="U12" s="4" t="n">
+        <v>53695699.6083667</v>
+      </c>
+      <c r="V12" s="4" t="n">
+        <v>57638709.9089916</v>
+      </c>
+      <c r="W12" s="4" t="n">
+        <v>34865535.8559165</v>
+      </c>
+      <c r="X12" s="4" t="n">
+        <v>-85370639.0539422</v>
+      </c>
+      <c r="Y12" s="4" t="n">
+        <v>88460406.421452</v>
+      </c>
+      <c r="Z12" s="4" t="n">
+        <v>103235999.010144</v>
+      </c>
+      <c r="AA12" s="4" t="n">
+        <v>115814548.981969</v>
+      </c>
+      <c r="AB12" s="4" t="n">
+        <v>15746876.6656345</v>
+      </c>
+      <c r="AC12" s="4" t="n">
+        <v>5548000.39722113</v>
+      </c>
+      <c r="AD12" s="4" t="n">
+        <v>3623019.56238995</v>
+      </c>
+      <c r="AE12" s="4" t="n">
+        <v>-4543524.21870892</v>
+      </c>
+      <c r="AF12" s="4" t="n">
+        <v>-1128901.8594</v>
+      </c>
+      <c r="AG12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4" t="n">
+        <v>8122.42623715666</v>
+      </c>
+      <c r="Q13" s="4" t="n">
+        <v>2126578.40386605</v>
+      </c>
+      <c r="R13" s="4" t="n">
+        <v>-5992.9766021219</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4" t="n">
+        <v>3335.97507865422</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4" t="n">
+        <v>1107268.19710075</v>
+      </c>
+      <c r="X13" s="4" t="n">
+        <v>2751240.03588297</v>
+      </c>
+      <c r="Y13" s="4" t="n">
+        <v>-1110266.89211525</v>
+      </c>
+      <c r="Z13" s="4" t="n">
+        <v>-123378.418793281</v>
+      </c>
+      <c r="AA13" s="4" t="n">
+        <v>558767.172963316</v>
+      </c>
+      <c r="AB13" s="4" t="n">
+        <v>4272449.73207875</v>
+      </c>
+      <c r="AC13" s="4" t="n">
+        <v>959611.077457018</v>
+      </c>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="M14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4" t="n">
+        <v>-2043484.83327341</v>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4" t="n">
+        <v>-1475057.03247194</v>
+      </c>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4" t="n">
+        <v>-49204.4308080586</v>
+      </c>
+      <c r="AB14" s="4" t="n">
+        <v>-19628588.1364682</v>
+      </c>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4" t="n">
+        <v>-472590.570032304</v>
+      </c>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="M15" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4" t="n">
+        <v>29165927.6804791</v>
+      </c>
+      <c r="S15" s="4" t="n">
+        <v>164546294.37098</v>
+      </c>
+      <c r="T15" s="4" t="n">
+        <v>133418122.415602</v>
+      </c>
+      <c r="U15" s="4" t="n">
+        <v>113305605.283761</v>
+      </c>
+      <c r="V15" s="4" t="n">
+        <v>117045988.835604</v>
+      </c>
+      <c r="W15" s="4" t="n">
+        <v>-20809860.4950134</v>
+      </c>
+      <c r="X15" s="4" t="n">
+        <v>-41101008.2754276</v>
+      </c>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/PBL/Platform/Other_Services/DoD_Other_Services_Contracts.xlsx
+++ b/Output/PBL/Platform/Other_Services/DoD_Other_Services_Contracts.xlsx
@@ -171,11 +171,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="5">
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -211,12 +212,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2595,46 +2597,46 @@
       <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4" t="n">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="n">
         <v>1695026.7852</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4" t="n">
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="n">
         <v>999826</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="5" t="n">
         <v>173867883</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="5" t="n">
         <v>202518682.35</v>
       </c>
-      <c r="X2" s="4" t="n">
+      <c r="X2" s="5" t="n">
         <v>200152656</v>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Y2" s="5" t="n">
         <v>235928772</v>
       </c>
-      <c r="Z2" s="4" t="n">
+      <c r="Z2" s="5" t="n">
         <v>350000</v>
       </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4" t="n">
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5" t="n">
         <v>-617517.1226</v>
       </c>
-      <c r="AC2" s="4" t="n">
+      <c r="AC2" s="5" t="n">
         <v>-10998831.1279</v>
       </c>
-      <c r="AD2" s="4" t="n">
+      <c r="AD2" s="5" t="n">
         <v>-667140.5468</v>
       </c>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2649,62 +2651,62 @@
       <c r="N3" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="4" t="n">
+      <c r="O3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4" t="n">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="n">
         <v>70656554</v>
       </c>
-      <c r="R3" s="4" t="n">
+      <c r="R3" s="5" t="n">
         <v>86918750</v>
       </c>
-      <c r="S3" s="4" t="n">
+      <c r="S3" s="5" t="n">
         <v>142958821.5469</v>
       </c>
-      <c r="T3" s="4" t="n">
+      <c r="T3" s="5" t="n">
         <v>70087891.3906</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="5" t="n">
         <v>40970078.3125</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="V3" s="5" t="n">
         <v>44776594.27</v>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="W3" s="5" t="n">
         <v>27579390.04</v>
       </c>
-      <c r="X3" s="4" t="n">
+      <c r="X3" s="5" t="n">
         <v>-68229372.87</v>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="5" t="n">
         <v>71263999.0478</v>
       </c>
-      <c r="Z3" s="4" t="n">
+      <c r="Z3" s="5" t="n">
         <v>84571146.875</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="5" t="n">
         <v>96981758.0157</v>
       </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AB3" s="5" t="n">
         <v>13430059.22</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AC3" s="5" t="n">
         <v>4793541.4269</v>
       </c>
-      <c r="AD3" s="4" t="n">
+      <c r="AD3" s="5" t="n">
         <v>3238071.8789</v>
       </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AE3" s="5" t="n">
         <v>-4344765.9707</v>
       </c>
-      <c r="AF3" s="4" t="n">
+      <c r="AF3" s="5" t="n">
         <v>-1128901.8594</v>
       </c>
-      <c r="AG3" s="4" t="n">
+      <c r="AG3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AH3" s="4"/>
+      <c r="AH3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2719,48 +2721,48 @@
       <c r="N4" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4" t="n">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="n">
         <v>5737</v>
       </c>
-      <c r="Q4" s="4" t="n">
+      <c r="Q4" s="5" t="n">
         <v>1533220</v>
       </c>
-      <c r="R4" s="4" t="n">
+      <c r="R4" s="5" t="n">
         <v>-4365</v>
       </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4" t="n">
+      <c r="S4" s="5"/>
+      <c r="T4" s="5" t="n">
         <v>2500</v>
       </c>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4" t="n">
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5" t="n">
         <v>875873</v>
       </c>
-      <c r="X4" s="4" t="n">
+      <c r="X4" s="5" t="n">
         <v>2198828.36</v>
       </c>
-      <c r="Y4" s="4" t="n">
+      <c r="Y4" s="5" t="n">
         <v>-894434.7188</v>
       </c>
-      <c r="Z4" s="4" t="n">
+      <c r="Z4" s="5" t="n">
         <v>-101071.8594</v>
       </c>
-      <c r="AA4" s="4" t="n">
+      <c r="AA4" s="5" t="n">
         <v>467905.14</v>
       </c>
-      <c r="AB4" s="4" t="n">
+      <c r="AB4" s="5" t="n">
         <v>3643849.77</v>
       </c>
-      <c r="AC4" s="4" t="n">
+      <c r="AC4" s="5" t="n">
         <v>829115.92</v>
       </c>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2775,38 +2777,38 @@
       <c r="N5" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4" t="n">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5" t="n">
         <v>-1616440.53</v>
       </c>
-      <c r="X5" s="4" t="n">
+      <c r="X5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y5" s="4" t="n">
+      <c r="Y5" s="5" t="n">
         <v>-1188310.875</v>
       </c>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4" t="n">
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5" t="n">
         <v>-41203.2188</v>
       </c>
-      <c r="AB5" s="4" t="n">
+      <c r="AB5" s="5" t="n">
         <v>-16740659.54</v>
       </c>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4" t="n">
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5" t="n">
         <v>-422377.58</v>
       </c>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2821,40 +2823,40 @@
       <c r="N6" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4" t="n">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5" t="n">
         <v>21243078.82</v>
       </c>
-      <c r="S6" s="4" t="n">
+      <c r="S6" s="5" t="n">
         <v>120885653.1875</v>
       </c>
-      <c r="T6" s="4" t="n">
+      <c r="T6" s="5" t="n">
         <v>99984351.8536</v>
       </c>
-      <c r="U6" s="4" t="n">
+      <c r="U6" s="5" t="n">
         <v>86452724.4375</v>
       </c>
-      <c r="V6" s="4" t="n">
+      <c r="V6" s="5" t="n">
         <v>90927100.23</v>
       </c>
-      <c r="W6" s="4" t="n">
+      <c r="W6" s="5" t="n">
         <v>-16461048</v>
       </c>
-      <c r="X6" s="4" t="n">
+      <c r="X6" s="5" t="n">
         <v>-32848483.39</v>
       </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -2869,64 +2871,64 @@
       <c r="N7" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="4" t="str">
+      <c r="O7" s="5" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="4" t="str">
+      <c r="P7" s="5" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="4" t="str">
+      <c r="Q7" s="5" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="4" t="str">
+      <c r="R7" s="5" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="4" t="str">
+      <c r="S7" s="5" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="4" t="str">
+      <c r="T7" s="5" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="4" t="str">
+      <c r="U7" s="5" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="4" t="str">
+      <c r="V7" s="5" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="4" t="str">
+      <c r="W7" s="5" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="4" t="str">
+      <c r="X7" s="5" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="4" t="str">
+      <c r="Y7" s="5" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="4" t="str">
+      <c r="Z7" s="5" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="4" t="str">
+      <c r="AA7" s="5" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="4" t="str">
+      <c r="AB7" s="5" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="4" t="str">
+      <c r="AC7" s="5" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="4" t="str">
+      <c r="AD7" s="5" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="4" t="str">
+      <c r="AE7" s="5" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="4" t="str">
+      <c r="AF7" s="5" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="4" t="str">
+      <c r="AG7" s="5" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="4"/>
+      <c r="AH7" s="5"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3012,46 +3014,46 @@
       <c r="N11" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4" t="n">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5" t="n">
         <v>2307224.79475385</v>
       </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4" t="n">
+      <c r="T11" s="5"/>
+      <c r="U11" s="5" t="n">
         <v>1310379.64211689</v>
       </c>
-      <c r="V11" s="4" t="n">
+      <c r="V11" s="5" t="n">
         <v>223811583.576419</v>
       </c>
-      <c r="W11" s="4" t="n">
+      <c r="W11" s="5" t="n">
         <v>256021702.101679</v>
       </c>
-      <c r="X11" s="4" t="n">
+      <c r="X11" s="5" t="n">
         <v>250437010.224624</v>
       </c>
-      <c r="Y11" s="4" t="n">
+      <c r="Y11" s="5" t="n">
         <v>292859723.513908</v>
       </c>
-      <c r="Z11" s="4" t="n">
+      <c r="Z11" s="5" t="n">
         <v>427245.000082074</v>
       </c>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4" t="n">
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5" t="n">
         <v>-724044.906221918</v>
       </c>
-      <c r="AC11" s="4" t="n">
+      <c r="AC11" s="5" t="n">
         <v>-12729945.1558136</v>
       </c>
-      <c r="AD11" s="4" t="n">
+      <c r="AD11" s="5" t="n">
         <v>-746451.389072013</v>
       </c>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3066,62 +3068,62 @@
       <c r="N12" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="4" t="n">
+      <c r="O12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4" t="n">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5" t="n">
         <v>98000744.7254768</v>
       </c>
-      <c r="R12" s="4" t="n">
+      <c r="R12" s="5" t="n">
         <v>119336090.500729</v>
       </c>
-      <c r="S12" s="4" t="n">
+      <c r="S12" s="5" t="n">
         <v>194591696.474508</v>
       </c>
-      <c r="T12" s="4" t="n">
+      <c r="T12" s="5" t="n">
         <v>93524583.5977861</v>
       </c>
-      <c r="U12" s="4" t="n">
+      <c r="U12" s="5" t="n">
         <v>53695699.6083667</v>
       </c>
-      <c r="V12" s="4" t="n">
+      <c r="V12" s="5" t="n">
         <v>57638709.9089916</v>
       </c>
-      <c r="W12" s="4" t="n">
+      <c r="W12" s="5" t="n">
         <v>34865535.8559165</v>
       </c>
-      <c r="X12" s="4" t="n">
+      <c r="X12" s="5" t="n">
         <v>-85370639.0539422</v>
       </c>
-      <c r="Y12" s="4" t="n">
+      <c r="Y12" s="5" t="n">
         <v>88460406.421452</v>
       </c>
-      <c r="Z12" s="4" t="n">
+      <c r="Z12" s="5" t="n">
         <v>103235999.010144</v>
       </c>
-      <c r="AA12" s="4" t="n">
+      <c r="AA12" s="5" t="n">
         <v>115814548.981969</v>
       </c>
-      <c r="AB12" s="4" t="n">
+      <c r="AB12" s="5" t="n">
         <v>15746876.6656345</v>
       </c>
-      <c r="AC12" s="4" t="n">
+      <c r="AC12" s="5" t="n">
         <v>5548000.39722113</v>
       </c>
-      <c r="AD12" s="4" t="n">
+      <c r="AD12" s="5" t="n">
         <v>3623019.56238995</v>
       </c>
-      <c r="AE12" s="4" t="n">
+      <c r="AE12" s="5" t="n">
         <v>-4543524.21870892</v>
       </c>
-      <c r="AF12" s="4" t="n">
+      <c r="AF12" s="5" t="n">
         <v>-1128901.8594</v>
       </c>
-      <c r="AG12" s="4" t="n">
+      <c r="AG12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AH12" s="4"/>
+      <c r="AH12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3136,48 +3138,48 @@
       <c r="N13" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4" t="n">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5" t="n">
         <v>8122.42623715666</v>
       </c>
-      <c r="Q13" s="4" t="n">
+      <c r="Q13" s="5" t="n">
         <v>2126578.40386605</v>
       </c>
-      <c r="R13" s="4" t="n">
+      <c r="R13" s="5" t="n">
         <v>-5992.9766021219</v>
       </c>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4" t="n">
+      <c r="S13" s="5"/>
+      <c r="T13" s="5" t="n">
         <v>3335.97507865422</v>
       </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4" t="n">
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5" t="n">
         <v>1107268.19710075</v>
       </c>
-      <c r="X13" s="4" t="n">
+      <c r="X13" s="5" t="n">
         <v>2751240.03588297</v>
       </c>
-      <c r="Y13" s="4" t="n">
+      <c r="Y13" s="5" t="n">
         <v>-1110266.89211525</v>
       </c>
-      <c r="Z13" s="4" t="n">
+      <c r="Z13" s="5" t="n">
         <v>-123378.418793281</v>
       </c>
-      <c r="AA13" s="4" t="n">
+      <c r="AA13" s="5" t="n">
         <v>558767.172963316</v>
       </c>
-      <c r="AB13" s="4" t="n">
+      <c r="AB13" s="5" t="n">
         <v>4272449.73207875</v>
       </c>
-      <c r="AC13" s="4" t="n">
+      <c r="AC13" s="5" t="n">
         <v>959611.077457018</v>
       </c>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3192,38 +3194,38 @@
       <c r="N14" t="s">
         <v>48</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4" t="n">
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5" t="n">
         <v>-2043484.83327341</v>
       </c>
-      <c r="X14" s="4" t="n">
+      <c r="X14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="Y14" s="4" t="n">
+      <c r="Y14" s="5" t="n">
         <v>-1475057.03247194</v>
       </c>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4" t="n">
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5" t="n">
         <v>-49204.4308080586</v>
       </c>
-      <c r="AB14" s="4" t="n">
+      <c r="AB14" s="5" t="n">
         <v>-19628588.1364682</v>
       </c>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4" t="n">
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5" t="n">
         <v>-472590.570032304</v>
       </c>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3238,40 +3240,40 @@
       <c r="N15" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4" t="n">
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5" t="n">
         <v>29165927.6804791</v>
       </c>
-      <c r="S15" s="4" t="n">
+      <c r="S15" s="5" t="n">
         <v>164546294.37098</v>
       </c>
-      <c r="T15" s="4" t="n">
+      <c r="T15" s="5" t="n">
         <v>133418122.415602</v>
       </c>
-      <c r="U15" s="4" t="n">
+      <c r="U15" s="5" t="n">
         <v>113305605.283761</v>
       </c>
-      <c r="V15" s="4" t="n">
+      <c r="V15" s="5" t="n">
         <v>117045988.835604</v>
       </c>
-      <c r="W15" s="4" t="n">
+      <c r="W15" s="5" t="n">
         <v>-20809860.4950134</v>
       </c>
-      <c r="X15" s="4" t="n">
+      <c r="X15" s="5" t="n">
         <v>-41101008.2754276</v>
       </c>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -3280,26 +3282,26 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/PBL/Platform/Other_Services/DoD_Other_Services_Contracts.xlsx
+++ b/Output/PBL/Platform/Other_Services/DoD_Other_Services_Contracts.xlsx
@@ -172,11 +172,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -214,11 +214,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
